--- a/Labo_04/partie2/or/cours_or.xlsx
+++ b/Labo_04/partie2/or/cours_or.xlsx
@@ -5,7 +5,7 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\Google Drive\He-Arc\AlgoNum\GIT\Labo_04\partie2\or\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\school\14-15\Sciences\AlgorithmesNumériques\Labos\trunk\Labo_04\partie2\or\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="4" uniqueCount="4">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="5" uniqueCount="5">
   <si>
     <t>année</t>
   </si>
@@ -37,13 +37,17 @@
   <si>
     <t>inflation</t>
   </si>
+  <si>
+    <t>inflation cummulée</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _f_r_._-;\-* #,##0.00\ _f_r_._-;_-* &quot;-&quot;??\ _f_r_._-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -524,11 +528,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20 % - Accent1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -587,6 +593,2184 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CH"/>
+              <a:t>Prix</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>cours_or!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2014</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>cours_or!$B$2:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>386.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>387.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>384.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>325.82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>293.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>377.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>276.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>272.70999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>315.37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>366.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>458.37</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>604.96</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>718.78</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>869.43</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>984.94</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1246.77</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1597.15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1670.13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1381.57</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1314.29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="293977608"/>
+        <c:axId val="293978784"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="293977608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15%"/>
+                <a:lumOff val="85%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="293978784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="293978784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="293977608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CH"/>
+              <a:t>Inflation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>cours_or!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2014</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>cours_or!$D$3:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2.5386627982281642E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.596702927572925E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.15166506105657823</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.1001166288134553</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28615279672578459</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.2657120127287193</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.5131816540267238E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15642990722745784</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16244411326378544</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12384069830878335</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11254854368932039</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.31980714270131122</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.18814467072203109</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.2095912518434013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13285715928826947</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.26583345178386492</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.28103018199026292</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5693892245562417E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.17277696945746748</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-4.8698220140854231E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="293981920"/>
+        <c:axId val="293978000"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>cours_or!$A$3:$A$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>1995</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1996</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1997</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1998</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1999</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2001</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2002</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2003</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2004</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2005</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2006</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2007</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2008</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2009</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>cours_or!$A$3:$A$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>1995</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1996</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1997</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1998</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1999</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2001</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2002</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2003</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2004</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2005</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2006</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2007</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2008</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2009</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2010</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2011</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>2012</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2013</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2014</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="293981920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15%"/>
+                <a:lumOff val="85%"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="293978000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="293978000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15%"/>
+                  <a:lumOff val="85%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65%"/>
+                    <a:lumOff val="35%"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="293981920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65%"/>
+                  <a:lumOff val="35%"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15%"/>
+          <a:lumOff val="85%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+    <a:lumOff val="20%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60%"/>
+    <a:lumOff val="40%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+    <a:lumOff val="30%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70%"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50%"/>
+    <a:lumOff val="50%"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75%"/>
+        <a:lumOff val="25%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65%"/>
+          <a:lumOff val="35%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75%"/>
+            <a:lumOff val="25%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75%"/>
+        <a:lumOff val="25%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25%"/>
+            <a:lumOff val="75%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65%"/>
+          <a:lumOff val="35%"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65%"/>
+            <a:lumOff val="35%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5%"/>
+            <a:lumOff val="95%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75%"/>
+            <a:lumOff val="25%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35%"/>
+            <a:lumOff val="65%"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0%"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15%"/>
+            <a:lumOff val="85%"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65%"/>
+        <a:lumOff val="35%"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Graphique 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://purl.oclc.org/ooxml/drawingml/chart">
+          <c:chart xmlns:c="http://purl.oclc.org/ooxml/drawingml/chart" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -852,19 +3036,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="3"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -877,8 +3064,11 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1994</v>
       </c>
@@ -886,7 +3076,7 @@
         <v>386.03</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1995</v>
       </c>
@@ -897,12 +3087,12 @@
         <f>B3-B2</f>
         <v>0.98000000000001819</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <f>C3/B2</f>
         <v>2.5386627982281642E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1996</v>
       </c>
@@ -913,12 +3103,16 @@
         <f t="shared" ref="C4:C22" si="0">B4-B3</f>
         <v>-2.9399999999999977</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <f t="shared" ref="D4:D22" si="1">C4/B3</f>
         <v>-7.596702927572925E-3</v>
       </c>
+      <c r="E4" s="5">
+        <f>D4+D3</f>
+        <v>-5.0580401293447604E-3</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1997</v>
       </c>
@@ -929,12 +3123,16 @@
         <f t="shared" si="0"/>
         <v>-58.25</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <f t="shared" si="1"/>
         <v>-0.15166506105657823</v>
       </c>
+      <c r="E5" s="5">
+        <f>E4+D5</f>
+        <v>-0.156723101185923</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1998</v>
       </c>
@@ -945,12 +3143,16 @@
         <f t="shared" si="0"/>
         <v>-32.620000000000005</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <f t="shared" si="1"/>
         <v>-0.1001166288134553</v>
       </c>
+      <c r="E6" s="5">
+        <f t="shared" ref="E6:E22" si="2">E5+D6</f>
+        <v>-0.25683972999937832</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1999</v>
       </c>
@@ -961,12 +3163,16 @@
         <f t="shared" si="0"/>
         <v>83.900000000000034</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <f t="shared" si="1"/>
         <v>0.28615279672578459</v>
       </c>
+      <c r="E7" s="5">
+        <f t="shared" si="2"/>
+        <v>2.9313066726406267E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2000</v>
       </c>
@@ -977,12 +3183,16 @@
         <f t="shared" si="0"/>
         <v>-100.20000000000005</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <f t="shared" si="1"/>
         <v>-0.2657120127287193</v>
       </c>
+      <c r="E8" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.23639894600231304</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2001</v>
       </c>
@@ -993,12 +3203,16 @@
         <f t="shared" si="0"/>
         <v>-4.1899999999999977</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <f t="shared" si="1"/>
         <v>-1.5131816540267238E-2</v>
       </c>
+      <c r="E9" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.25153076254258028</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2002</v>
       </c>
@@ -1009,12 +3223,16 @@
         <f t="shared" si="0"/>
         <v>42.660000000000025</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <f t="shared" si="1"/>
         <v>0.15642990722745784</v>
       </c>
+      <c r="E10" s="5">
+        <f t="shared" si="2"/>
+        <v>-9.510085531512244E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2003</v>
       </c>
@@ -1025,12 +3243,16 @@
         <f t="shared" si="0"/>
         <v>51.230000000000018</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="4">
         <f t="shared" si="1"/>
         <v>0.16244411326378544</v>
       </c>
+      <c r="E11" s="5">
+        <f t="shared" si="2"/>
+        <v>6.7343257948662999E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2004</v>
       </c>
@@ -1041,12 +3263,16 @@
         <f t="shared" si="0"/>
         <v>45.399999999999977</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4">
         <f t="shared" si="1"/>
         <v>0.12384069830878335</v>
       </c>
+      <c r="E12" s="5">
+        <f t="shared" si="2"/>
+        <v>0.19118395625744633</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2005</v>
       </c>
@@ -1057,12 +3283,16 @@
         <f t="shared" si="0"/>
         <v>46.370000000000005</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="4">
         <f t="shared" si="1"/>
         <v>0.11254854368932039</v>
       </c>
+      <c r="E13" s="5">
+        <f t="shared" si="2"/>
+        <v>0.30373249994676671</v>
+      </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2006</v>
       </c>
@@ -1073,12 +3303,16 @@
         <f t="shared" si="0"/>
         <v>146.59000000000003</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="4">
         <f t="shared" si="1"/>
         <v>0.31980714270131122</v>
       </c>
+      <c r="E14" s="5">
+        <f t="shared" si="2"/>
+        <v>0.62353964264807793</v>
+      </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2007</v>
       </c>
@@ -1089,12 +3323,16 @@
         <f t="shared" si="0"/>
         <v>113.81999999999994</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="4">
         <f t="shared" si="1"/>
         <v>0.18814467072203109</v>
       </c>
+      <c r="E15" s="5">
+        <f t="shared" si="2"/>
+        <v>0.81168431337010905</v>
+      </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2008</v>
       </c>
@@ -1105,12 +3343,16 @@
         <f t="shared" si="0"/>
         <v>150.64999999999998</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="4">
         <f t="shared" si="1"/>
         <v>0.2095912518434013</v>
       </c>
+      <c r="E16" s="5">
+        <f t="shared" si="2"/>
+        <v>1.0212755652135104</v>
+      </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2009</v>
       </c>
@@ -1121,12 +3363,16 @@
         <f t="shared" si="0"/>
         <v>115.5100000000001</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="4">
         <f t="shared" si="1"/>
         <v>0.13285715928826947</v>
       </c>
+      <c r="E17" s="5">
+        <f t="shared" si="2"/>
+        <v>1.1541327245017798</v>
+      </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2010</v>
       </c>
@@ -1137,12 +3383,16 @@
         <f t="shared" si="0"/>
         <v>261.82999999999993</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="4">
         <f t="shared" si="1"/>
         <v>0.26583345178386492</v>
       </c>
+      <c r="E18" s="5">
+        <f t="shared" si="2"/>
+        <v>1.4199661762856448</v>
+      </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2011</v>
       </c>
@@ -1153,12 +3403,16 @@
         <f t="shared" si="0"/>
         <v>350.38000000000011</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="4">
         <f t="shared" si="1"/>
         <v>0.28103018199026292</v>
       </c>
+      <c r="E19" s="5">
+        <f t="shared" si="2"/>
+        <v>1.7009963582759078</v>
+      </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2012</v>
       </c>
@@ -1169,12 +3423,16 @@
         <f t="shared" si="0"/>
         <v>72.980000000000018</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="4">
         <f t="shared" si="1"/>
         <v>4.5693892245562417E-2</v>
       </c>
+      <c r="E20" s="5">
+        <f t="shared" si="2"/>
+        <v>1.7466902505214703</v>
+      </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2013</v>
       </c>
@@ -1185,12 +3443,16 @@
         <f t="shared" si="0"/>
         <v>-288.56000000000017</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="4">
         <f t="shared" si="1"/>
         <v>-0.17277696945746748</v>
       </c>
+      <c r="E21" s="5">
+        <f t="shared" si="2"/>
+        <v>1.5739132810640029</v>
+      </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2014</v>
       </c>
@@ -1201,12 +3463,17 @@
         <f t="shared" si="0"/>
         <v>-67.279999999999973</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="4">
         <f t="shared" si="1"/>
         <v>-4.8698220140854231E-2</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="2"/>
+        <v>1.5252150609231485</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>